--- a/data_driven_MCDM/CCRC_assignment_surrogate_models_from_paper_exact_models_precalculated.xlsx
+++ b/data_driven_MCDM/CCRC_assignment_surrogate_models_from_paper_exact_models_precalculated.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="26" uniqueCount="13">
   <si>
     <t>Exec_time</t>
   </si>
@@ -103,7 +103,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="true"/>
+    <col min="1" max="1" width="9.5546875" customWidth="true"/>
     <col min="2" max="2" width="5.44140625" customWidth="true"/>
     <col min="3" max="3" width="10.77734375" customWidth="true"/>
     <col min="4" max="4" width="12.109375" customWidth="true"/>
@@ -161,7 +161,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>4.8491900000000001</v>
+        <v>5.3686712999999999</v>
       </c>
       <c r="B2" s="0">
         <v>47</v>
@@ -194,7 +194,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="0">
-        <v>4.6855547</v>
+        <v>5.1566190000000001</v>
       </c>
       <c r="M2" s="0">
         <v>1</v>
@@ -202,7 +202,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>3.7289086</v>
+        <v>3.1895085999999999</v>
       </c>
       <c r="B3" s="0">
         <v>47</v>
@@ -235,7 +235,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="0">
-        <v>3.6408591000000001</v>
+        <v>3.126217</v>
       </c>
       <c r="M3" s="0">
         <v>1</v>
@@ -243,7 +243,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>3.6644872999999998</v>
+        <v>3.0427202000000002</v>
       </c>
       <c r="B4" s="0">
         <v>62</v>
@@ -276,7 +276,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="0">
-        <v>3.4609019000000001</v>
+        <v>2.8685062000000001</v>
       </c>
       <c r="M4" s="0">
         <v>1</v>
@@ -284,7 +284,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>4.1689959999999999</v>
+        <v>3.1373468</v>
       </c>
       <c r="B5" s="0">
         <v>62</v>
@@ -317,7 +317,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="0">
-        <v>4.1029134999999997</v>
+        <v>3.1016412999999998</v>
       </c>
       <c r="M5" s="0">
         <v>1</v>
@@ -325,7 +325,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>4.0324451000000003</v>
+        <v>3.2282912000000001</v>
       </c>
       <c r="B6" s="0">
         <v>47</v>
@@ -358,7 +358,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="0">
-        <v>3.9715123000000001</v>
+        <v>3.1932740000000002</v>
       </c>
       <c r="M6" s="0">
         <v>1</v>
@@ -366,7 +366,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>4.9770335000000001</v>
+        <v>3.3066870000000002</v>
       </c>
       <c r="B7" s="0">
         <v>47</v>
@@ -399,7 +399,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="0">
-        <v>4.9175673</v>
+        <v>3.2838847000000002</v>
       </c>
       <c r="M7" s="0">
         <v>1</v>
@@ -407,7 +407,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>16.746222299999999</v>
+        <v>4.0338275000000001</v>
       </c>
       <c r="B8" s="0">
         <v>47</v>
@@ -440,7 +440,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="0">
-        <v>16.637309900000002</v>
+        <v>4.0086662999999998</v>
       </c>
       <c r="M8" s="0">
         <v>1</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>13.4139698</v>
+        <v>3.5887511999999999</v>
       </c>
       <c r="B9" s="0">
         <v>47</v>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="0">
-        <v>13.3246248</v>
+        <v>3.5652124999999999</v>
       </c>
       <c r="M9" s="0">
         <v>1</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>12.4694415</v>
+        <v>3.4345216999999999</v>
       </c>
       <c r="B10" s="0">
         <v>12</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>12.249358600000001</v>
+        <v>3.3733659</v>
       </c>
       <c r="M10" s="0">
         <v>2</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>13.7793124</v>
+        <v>3.5801235</v>
       </c>
       <c r="B11" s="0">
         <v>12</v>
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>13.6613617</v>
+        <v>3.5548785999999999</v>
       </c>
       <c r="M11" s="0">
         <v>1</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>12.403801400000001</v>
+        <v>3.6808521000000001</v>
       </c>
       <c r="B12" s="0">
         <v>12</v>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="0">
-        <v>12.323438400000001</v>
+        <v>3.6595979000000001</v>
       </c>
       <c r="M12" s="0">
         <v>1</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>12.428533399999999</v>
+        <v>3.6159390999999999</v>
       </c>
       <c r="B13" s="0">
         <v>12</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>12.3466109</v>
+        <v>3.5951697</v>
       </c>
       <c r="M13" s="0">
         <v>1</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>11.651940400000001</v>
+        <v>3.5034168000000001</v>
       </c>
       <c r="B14" s="0">
         <v>12</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>11.540346</v>
+        <v>3.479473</v>
       </c>
       <c r="M14" s="0">
         <v>1</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>11.812740399999999</v>
+        <v>3.6778726000000002</v>
       </c>
       <c r="B15" s="0">
         <v>47</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="0">
-        <v>11.7398431</v>
+        <v>3.6544987999999998</v>
       </c>
       <c r="M15" s="0">
         <v>1</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>9.0592178000000008</v>
+        <v>3.8723011999999999</v>
       </c>
       <c r="B16" s="0">
         <v>12</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="0">
-        <v>8.9483394000000001</v>
+        <v>3.8167116999999999</v>
       </c>
       <c r="M16" s="0">
         <v>2</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>4.1176091000000001</v>
+        <v>3.6795176999999999</v>
       </c>
       <c r="B17" s="0">
         <v>12</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="0">
-        <v>4.0903200000000002</v>
+        <v>3.6566494999999999</v>
       </c>
       <c r="M17" s="0">
         <v>1</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>3.9938983000000001</v>
+        <v>3.5645354</v>
       </c>
       <c r="B18" s="0">
         <v>12</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="0">
-        <v>3.9653141000000001</v>
+        <v>3.5440841000000001</v>
       </c>
       <c r="M18" s="0">
         <v>1</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>3.8984586000000001</v>
+        <v>3.7963580000000001</v>
       </c>
       <c r="B19" s="0">
         <v>12</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="0">
-        <v>3.8652326000000001</v>
+        <v>3.7742594</v>
       </c>
       <c r="M19" s="0">
         <v>1</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>3.8546358999999999</v>
+        <v>3.9705789</v>
       </c>
       <c r="B20" s="0">
         <v>47</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="0">
-        <v>3.8246281999999998</v>
+        <v>3.9478032999999999</v>
       </c>
       <c r="M20" s="0">
         <v>1</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>3.6189315</v>
+        <v>3.8785319</v>
       </c>
       <c r="B21" s="0">
         <v>47</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="0">
-        <v>3.5776726000000001</v>
+        <v>3.8561936000000001</v>
       </c>
       <c r="M21" s="0">
         <v>1</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>3.6653799</v>
+        <v>3.7969579000000002</v>
       </c>
       <c r="B22" s="0">
         <v>47</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="0">
-        <v>3.6372924000000002</v>
+        <v>3.7725406000000001</v>
       </c>
       <c r="M22" s="0">
         <v>1</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>3.5161481999999999</v>
+        <v>3.5686713000000001</v>
       </c>
       <c r="B23" s="0">
         <v>12</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="0">
-        <v>3.4683405999999999</v>
+        <v>3.5265570999999998</v>
       </c>
       <c r="M23" s="0">
         <v>2</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>3.7109990000000002</v>
+        <v>3.7789524999999999</v>
       </c>
       <c r="B24" s="0">
         <v>12</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="0">
-        <v>3.6802193000000001</v>
+        <v>3.7577788999999999</v>
       </c>
       <c r="M24" s="0">
         <v>1</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>3.6743801999999999</v>
+        <v>3.7960460999999999</v>
       </c>
       <c r="B25" s="0">
         <v>12</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="0">
-        <v>3.6475282999999998</v>
+        <v>3.7716778</v>
       </c>
       <c r="M25" s="0">
         <v>1</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>3.8833788999999999</v>
+        <v>3.7525390000000001</v>
       </c>
       <c r="B26" s="0">
         <v>47</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="0">
-        <v>3.8504415999999999</v>
+        <v>3.7279727</v>
       </c>
       <c r="M26" s="0">
         <v>1</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>4.1408047999999997</v>
+        <v>3.7813612000000001</v>
       </c>
       <c r="B27" s="0">
         <v>47</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="0">
-        <v>4.1034990999999996</v>
+        <v>3.7578469000000001</v>
       </c>
       <c r="M27" s="0">
         <v>1</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>4.0905310999999998</v>
+        <v>4.1066523999999998</v>
       </c>
       <c r="B28" s="0">
         <v>47</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="0">
-        <v>4.0493622</v>
+        <v>4.0718477000000002</v>
       </c>
       <c r="M28" s="0">
         <v>1</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>3.5032958999999999</v>
+        <v>3.6070628999999998</v>
       </c>
       <c r="B29" s="0">
         <v>47</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="0">
-        <v>3.4714936999999999</v>
+        <v>3.5850186000000002</v>
       </c>
       <c r="M29" s="0">
         <v>1</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>3.3840811</v>
+        <v>3.5795499999999998</v>
       </c>
       <c r="B30" s="0">
         <v>47</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="0">
-        <v>3.3546122999999999</v>
+        <v>3.5553452999999999</v>
       </c>
       <c r="M30" s="0">
         <v>1</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>3.6989236999999999</v>
+        <v>3.9184258999999999</v>
       </c>
       <c r="B31" s="0">
         <v>47</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="0">
-        <v>3.6709896999999998</v>
+        <v>3.8939827</v>
       </c>
       <c r="M31" s="0">
         <v>1</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>3.6097836999999999</v>
+        <v>4.4740656999999997</v>
       </c>
       <c r="B32" s="0">
         <v>12</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="0">
-        <v>3.5630497000000001</v>
+        <v>4.4197936999999996</v>
       </c>
       <c r="M32" s="0">
         <v>2</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>3.9408409999999998</v>
+        <v>4.0256040000000004</v>
       </c>
       <c r="B33" s="0">
         <v>47</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="0">
-        <v>3.9159421000000001</v>
+        <v>4.0005286</v>
       </c>
       <c r="M33" s="0">
         <v>1</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>3.2528719000000001</v>
+        <v>3.4567695999999999</v>
       </c>
       <c r="B34" s="0">
         <v>12</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="0">
-        <v>3.2047390999999998</v>
+        <v>3.4155495</v>
       </c>
       <c r="M34" s="0">
         <v>1</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>3.5816523</v>
+        <v>3.9648154</v>
       </c>
       <c r="B35" s="0">
         <v>12</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="0">
-        <v>3.5537888</v>
+        <v>3.9431294000000001</v>
       </c>
       <c r="M35" s="0">
         <v>1</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>3.6028799999999999</v>
+        <v>3.8284126999999999</v>
       </c>
       <c r="B36" s="0">
         <v>12</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="0">
-        <v>3.5703675000000001</v>
+        <v>3.8053178999999999</v>
       </c>
       <c r="M36" s="0">
         <v>1</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>3.4461159000000001</v>
+        <v>3.6757963</v>
       </c>
       <c r="B37" s="0">
         <v>12</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="0">
-        <v>3.4163432</v>
+        <v>3.6522047</v>
       </c>
       <c r="M37" s="0">
         <v>1</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>3.4843681000000002</v>
+        <v>3.7034872999999999</v>
       </c>
       <c r="B38" s="0">
         <v>12</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="0">
-        <v>3.4598468000000002</v>
+        <v>3.6800906000000002</v>
       </c>
       <c r="M38" s="0">
         <v>1</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>3.5851006000000001</v>
+        <v>3.9131230000000001</v>
       </c>
       <c r="B39" s="0">
         <v>12</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="0">
-        <v>3.5607031</v>
+        <v>3.8904709</v>
       </c>
       <c r="M39" s="0">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>3.9241804999999998</v>
+        <v>3.7560926000000001</v>
       </c>
       <c r="B40" s="0">
         <v>12</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="0">
-        <v>3.8956509000000001</v>
+        <v>3.7338148000000002</v>
       </c>
       <c r="M40" s="0">
         <v>1</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>3.4678787</v>
+        <v>3.6447188000000001</v>
       </c>
       <c r="B41" s="0">
         <v>12</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="0">
-        <v>3.4407625999999998</v>
+        <v>3.6191521</v>
       </c>
       <c r="M41" s="0">
         <v>1</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>3.3073345000000001</v>
+        <v>3.4308551</v>
       </c>
       <c r="B42" s="0">
         <v>12</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="0">
-        <v>3.2639426</v>
+        <v>3.3929635</v>
       </c>
       <c r="M42" s="0">
         <v>1</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>4.0218410999999996</v>
+        <v>3.6733356000000001</v>
       </c>
       <c r="B43" s="0">
         <v>12</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="0">
-        <v>3.9851936000000001</v>
+        <v>3.6488732000000001</v>
       </c>
       <c r="M43" s="0">
         <v>1</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>3.7394088000000001</v>
+        <v>3.7138426</v>
       </c>
       <c r="B44" s="0">
         <v>12</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="0">
-        <v>3.7139920000000002</v>
+        <v>3.6893354</v>
       </c>
       <c r="M44" s="0">
         <v>1</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>3.2412141000000001</v>
+        <v>3.4722064000000001</v>
       </c>
       <c r="B45" s="0">
         <v>12</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="0">
-        <v>3.1941236000000002</v>
+        <v>3.4394507000000001</v>
       </c>
       <c r="M45" s="0">
         <v>1</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>3.4972487000000001</v>
+        <v>3.6483690000000002</v>
       </c>
       <c r="B46" s="0">
         <v>12</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="0">
-        <v>3.4668212999999999</v>
+        <v>3.6238307999999999</v>
       </c>
       <c r="M46" s="0">
         <v>1</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>3.5873075999999999</v>
+        <v>3.8444980000000002</v>
       </c>
       <c r="B47" s="0">
         <v>12</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="0">
-        <v>3.5592329999999999</v>
+        <v>3.8229386000000001</v>
       </c>
       <c r="M47" s="0">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>3.6570119999999999</v>
+        <v>4.3329417000000001</v>
       </c>
       <c r="B48" s="0">
         <v>12</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="0">
-        <v>3.6310517999999998</v>
+        <v>4.3106071999999998</v>
       </c>
       <c r="M48" s="0">
         <v>1</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>3.6467447000000002</v>
+        <v>3.8893309999999999</v>
       </c>
       <c r="B49" s="0">
         <v>12</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="0">
-        <v>3.6191873999999999</v>
+        <v>3.8680161000000002</v>
       </c>
       <c r="M49" s="0">
         <v>1</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>3.6393987000000001</v>
+        <v>3.9055705000000001</v>
       </c>
       <c r="B50" s="0">
         <v>12</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="0">
-        <v>3.6116351999999998</v>
+        <v>3.8812137</v>
       </c>
       <c r="M50" s="0">
         <v>1</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>3.6241322</v>
+        <v>3.7700160999999999</v>
       </c>
       <c r="B51" s="0">
         <v>12</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="0">
-        <v>3.5983754000000001</v>
+        <v>3.7470048</v>
       </c>
       <c r="M51" s="0">
         <v>1</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>3.6262262999999999</v>
+        <v>3.7595646999999999</v>
       </c>
       <c r="B52" s="0">
         <v>12</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="0">
-        <v>3.5973752999999999</v>
+        <v>3.7357341000000002</v>
       </c>
       <c r="M52" s="0">
         <v>1</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>3.6526686000000002</v>
+        <v>3.8424993999999999</v>
       </c>
       <c r="B53" s="0">
         <v>12</v>
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="0">
-        <v>3.6259315999999999</v>
+        <v>3.8206714000000002</v>
       </c>
       <c r="M53" s="0">
         <v>1</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>3.6607080000000001</v>
+        <v>3.8950923999999998</v>
       </c>
       <c r="B54" s="0">
         <v>12</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="0">
-        <v>3.6304145000000001</v>
+        <v>3.8732587999999999</v>
       </c>
       <c r="M54" s="0">
         <v>1</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>3.6435875000000002</v>
+        <v>3.9007146000000001</v>
       </c>
       <c r="B55" s="0">
         <v>12</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="0">
-        <v>3.6159238</v>
+        <v>3.8788629000000001</v>
       </c>
       <c r="M55" s="0">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>3.5846545999999999</v>
+        <v>3.8552205000000002</v>
       </c>
       <c r="B56" s="0">
         <v>12</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="0">
-        <v>3.5584921999999999</v>
+        <v>3.8308154000000001</v>
       </c>
       <c r="M56" s="0">
         <v>1</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>3.7816348999999998</v>
+        <v>4.0585770999999999</v>
       </c>
       <c r="B57" s="0">
         <v>47</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="0">
-        <v>3.7532584</v>
+        <v>4.0319972999999996</v>
       </c>
       <c r="M57" s="0">
         <v>1</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>3.4051543999999998</v>
+        <v>3.6477870000000001</v>
       </c>
       <c r="B58" s="0">
         <v>12</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="0">
-        <v>3.3751508000000001</v>
+        <v>3.6236614999999999</v>
       </c>
       <c r="M58" s="0">
         <v>1</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>3.8850877000000001</v>
+        <v>3.8937651999999998</v>
       </c>
       <c r="B59" s="0">
         <v>12</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="0">
-        <v>3.8543053999999999</v>
+        <v>3.8695971999999998</v>
       </c>
       <c r="M59" s="0">
         <v>1</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>4.1750670000000003</v>
+        <v>3.8774278</v>
       </c>
       <c r="B60" s="0">
         <v>12</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="0">
-        <v>4.1423769000000004</v>
+        <v>3.8549799999999999</v>
       </c>
       <c r="M60" s="0">
         <v>1</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>4.2086002999999996</v>
+        <v>4.7087238999999999</v>
       </c>
       <c r="B61" s="0">
         <v>12</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="0">
-        <v>4.1780910999999996</v>
+        <v>4.6846860000000001</v>
       </c>
       <c r="M61" s="0">
         <v>1</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>3.7691590000000001</v>
+        <v>3.9277948</v>
       </c>
       <c r="B62" s="0">
         <v>12</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="0">
-        <v>3.7406955000000002</v>
+        <v>3.9063178000000001</v>
       </c>
       <c r="M62" s="0">
         <v>1</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>3.5765717000000001</v>
+        <v>4.3981567999999998</v>
       </c>
       <c r="B63" s="0">
         <v>12</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="0">
-        <v>3.5490260999999999</v>
+        <v>4.3730583000000003</v>
       </c>
       <c r="M63" s="0">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>3.7880319</v>
+        <v>4.1938234000000003</v>
       </c>
       <c r="B64" s="0">
         <v>47</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="0">
-        <v>3.7613384999999999</v>
+        <v>4.1722913000000004</v>
       </c>
       <c r="M64" s="0">
         <v>1</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>3.6387165000000001</v>
+        <v>4.2484894999999998</v>
       </c>
       <c r="B65" s="0">
         <v>12</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="0">
-        <v>3.5752468999999998</v>
+        <v>4.1901834999999998</v>
       </c>
       <c r="M65" s="0">
         <v>3</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>3.7390355999999998</v>
+        <v>4.0205253000000001</v>
       </c>
       <c r="B66" s="0">
         <v>47</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="0">
-        <v>3.7125937000000002</v>
+        <v>3.9925947000000002</v>
       </c>
       <c r="M66" s="0">
         <v>1</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>3.7293194000000001</v>
+        <v>3.9859116000000001</v>
       </c>
       <c r="B67" s="0">
         <v>12</v>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="0">
-        <v>3.6622321000000002</v>
+        <v>3.9263637</v>
       </c>
       <c r="M67" s="0">
         <v>3</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>3.7852524000000001</v>
+        <v>4.0005231999999999</v>
       </c>
       <c r="B68" s="0">
         <v>47</v>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="0">
-        <v>3.7587638999999999</v>
+        <v>3.9788014</v>
       </c>
       <c r="M68" s="0">
         <v>1</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>3.5145488999999999</v>
+        <v>3.6548854999999998</v>
       </c>
       <c r="B69" s="0">
         <v>12</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="0">
-        <v>3.4886948000000002</v>
+        <v>3.6310804999999999</v>
       </c>
       <c r="M69" s="0">
         <v>1</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>3.6256211</v>
+        <v>3.8814364000000001</v>
       </c>
       <c r="B70" s="0">
         <v>12</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="0">
-        <v>3.6000421999999999</v>
+        <v>3.8527985999999999</v>
       </c>
       <c r="M70" s="0">
         <v>1</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>3.7328294999999998</v>
+        <v>3.9767122000000001</v>
       </c>
       <c r="B71" s="0">
         <v>12</v>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="0">
-        <v>3.6889823000000002</v>
+        <v>3.9503715000000001</v>
       </c>
       <c r="M71" s="0">
         <v>1</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>3.6368239</v>
+        <v>3.9064009</v>
       </c>
       <c r="B72" s="0">
         <v>12</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="0">
-        <v>3.6099996000000001</v>
+        <v>3.8845341000000002</v>
       </c>
       <c r="M72" s="0">
         <v>1</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>3.6430235</v>
+        <v>3.8601808000000002</v>
       </c>
       <c r="B73" s="0">
         <v>12</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="0">
-        <v>3.6127937000000001</v>
+        <v>3.8370397000000001</v>
       </c>
       <c r="M73" s="0">
         <v>1</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>3.6186785000000001</v>
+        <v>3.9246137000000001</v>
       </c>
       <c r="B74" s="0">
         <v>47</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="0">
-        <v>3.5923763000000002</v>
+        <v>3.9025371</v>
       </c>
       <c r="M74" s="0">
         <v>1</v>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>4.1418017000000003</v>
+        <v>3.8178849000000001</v>
       </c>
       <c r="B75" s="0">
         <v>47</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="0">
-        <v>4.0913854000000001</v>
+        <v>3.7954270000000001</v>
       </c>
       <c r="M75" s="0">
         <v>1</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>4.1415104999999999</v>
+        <v>3.6423152999999999</v>
       </c>
       <c r="B76" s="0">
         <v>47</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="0">
-        <v>4.1055124000000003</v>
+        <v>3.6165145999999999</v>
       </c>
       <c r="M76" s="0">
         <v>1</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>3.4278485000000001</v>
+        <v>3.5388695000000001</v>
       </c>
       <c r="B77" s="0">
         <v>17</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="0">
-        <v>3.3831703000000002</v>
+        <v>3.4953880000000002</v>
       </c>
       <c r="M77" s="0">
         <v>1</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>3.4886585999999999</v>
+        <v>3.7174239</v>
       </c>
       <c r="B78" s="0">
         <v>17</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="0">
-        <v>3.4601299000000001</v>
+        <v>3.6880172999999998</v>
       </c>
       <c r="M78" s="0">
         <v>1</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>3.2310131000000002</v>
+        <v>3.8559272999999998</v>
       </c>
       <c r="B79" s="0">
         <v>17</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="0">
-        <v>3.2015587000000001</v>
+        <v>3.8225804999999999</v>
       </c>
       <c r="M79" s="0">
         <v>1</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>3.4872093</v>
+        <v>3.7038772</v>
       </c>
       <c r="B80" s="0">
         <v>12</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="0">
-        <v>3.4604805000000001</v>
+        <v>3.6788919999999998</v>
       </c>
       <c r="M80" s="0">
         <v>1</v>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>3.8560115000000001</v>
+        <v>4.2824407000000004</v>
       </c>
       <c r="B81" s="0">
         <v>47</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="0">
-        <v>3.8284474999999998</v>
+        <v>4.2606795000000002</v>
       </c>
       <c r="M81" s="0">
         <v>1</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>3.9574862999999998</v>
+        <v>3.722016</v>
       </c>
       <c r="B82" s="0">
         <v>12</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="0">
-        <v>3.929729</v>
+        <v>3.6872872000000001</v>
       </c>
       <c r="M82" s="0">
         <v>1</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>3.6851373000000001</v>
+        <v>3.9983012000000002</v>
       </c>
       <c r="B83" s="0">
         <v>12</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="0">
-        <v>3.6573247000000002</v>
+        <v>3.9754756000000002</v>
       </c>
       <c r="M83" s="0">
         <v>1</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>3.6255712</v>
+        <v>3.9189335000000001</v>
       </c>
       <c r="B84" s="0">
         <v>12</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="0">
-        <v>3.6012246999999999</v>
+        <v>3.8939580999999999</v>
       </c>
       <c r="M84" s="0">
         <v>1</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>3.7935401999999998</v>
+        <v>3.8962637999999998</v>
       </c>
       <c r="B85" s="0">
         <v>12</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="0">
-        <v>3.7679276000000002</v>
+        <v>3.8720357000000001</v>
       </c>
       <c r="M85" s="0">
         <v>1</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>3.7888259</v>
+        <v>4.0994599999999997</v>
       </c>
       <c r="B86" s="0">
         <v>47</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="0">
-        <v>3.7516183000000001</v>
+        <v>4.0771812000000001</v>
       </c>
       <c r="M86" s="0">
         <v>1</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>3.7865631</v>
+        <v>3.9320403000000002</v>
       </c>
       <c r="B87" s="0">
         <v>47</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="0">
-        <v>3.7514462000000002</v>
+        <v>3.9019368000000001</v>
       </c>
       <c r="M87" s="0">
         <v>1</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>3.6529948000000001</v>
+        <v>3.9241356999999999</v>
       </c>
       <c r="B88" s="0">
         <v>47</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="0">
-        <v>3.6275650000000002</v>
+        <v>3.8993456000000002</v>
       </c>
       <c r="M88" s="0">
         <v>1</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>3.7596740999999998</v>
+        <v>3.9361649000000001</v>
       </c>
       <c r="B89" s="0">
         <v>47</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="0">
-        <v>3.7277521999999998</v>
+        <v>3.9119684000000001</v>
       </c>
       <c r="M89" s="0">
         <v>1</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>3.6518622000000001</v>
+        <v>4.0242468000000002</v>
       </c>
       <c r="B90" s="0">
         <v>47</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="0">
-        <v>3.6247341999999998</v>
+        <v>4.0010681999999997</v>
       </c>
       <c r="M90" s="0">
         <v>1</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>4.4473421999999996</v>
+        <v>3.6275624999999998</v>
       </c>
       <c r="B91" s="0">
         <v>47</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="0">
-        <v>4.3997947000000002</v>
+        <v>3.6027919000000002</v>
       </c>
       <c r="M91" s="0">
         <v>1</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>4.4269417999999998</v>
+        <v>3.9073652000000001</v>
       </c>
       <c r="B92" s="0">
         <v>62</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="0">
-        <v>4.3995398000000003</v>
+        <v>3.8742141000000001</v>
       </c>
       <c r="M92" s="0">
         <v>1</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>4.0497961</v>
+        <v>4.3386646000000004</v>
       </c>
       <c r="B93" s="0">
         <v>47</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="0">
-        <v>4.0054971000000004</v>
+        <v>4.2984426999999998</v>
       </c>
       <c r="M93" s="0">
         <v>1</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>3.3688813999999998</v>
+        <v>4.0348823999999999</v>
       </c>
       <c r="B94" s="0">
         <v>12</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="0">
-        <v>3.3275204999999999</v>
+        <v>3.9985168</v>
       </c>
       <c r="M94" s="0">
         <v>1</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>3.6264067999999998</v>
+        <v>4.1832950999999996</v>
       </c>
       <c r="B95" s="0">
         <v>12</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="0">
-        <v>3.6017697000000002</v>
+        <v>4.1589022</v>
       </c>
       <c r="M95" s="0">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>3.6060249</v>
+        <v>4.0076343999999997</v>
       </c>
       <c r="B96" s="0">
         <v>12</v>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="0">
-        <v>3.5809350000000002</v>
+        <v>3.9849180999999998</v>
       </c>
       <c r="M96" s="0">
         <v>1</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>3.870781</v>
+        <v>4.0445890000000002</v>
       </c>
       <c r="B97" s="0">
         <v>47</v>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="L97" s="0">
-        <v>3.8418852000000001</v>
+        <v>4.0232175999999997</v>
       </c>
       <c r="M97" s="0">
         <v>1</v>
